--- a/emails.xlsx
+++ b/emails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\React\Mailer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E97C34-16DC-47AE-893B-A5D2326EE68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C257C45-B2C5-4B25-A715-E8DAE9186259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>d.kovbasiuk@grmu.com.ua</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>email</t>
+  </si>
+  <si>
+    <t>k0vbasyuk.dim0n@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -376,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,11 +407,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{66CC1BBB-E49A-4B5C-858B-B4AFE016FC19}"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{7E134908-3D13-45DF-91E1-15C555BB49CA}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{41F98953-5DAE-45BB-959A-B7E9E5F6A7C9}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{7E134908-3D13-45DF-91E1-15C555BB49CA}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{66CC1BBB-E49A-4B5C-858B-B4AFE016FC19}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{AE132074-48E2-4769-A6D1-BE90385E571A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/emails.xlsx
+++ b/emails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\React\Mailer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C257C45-B2C5-4B25-A715-E8DAE9186259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3816898A-9F10-4717-B35F-FF9153BE8E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>d.kovbasiuk@grmu.com.ua</t>
-  </si>
-  <si>
-    <t>m.tasalova@grmu.com.ua</t>
-  </si>
-  <si>
-    <t>o.reznik@grmu.com.ua</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>email</t>
   </si>
@@ -379,45 +370,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+    </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{7E134908-3D13-45DF-91E1-15C555BB49CA}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{41F98953-5DAE-45BB-959A-B7E9E5F6A7C9}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{66CC1BBB-E49A-4B5C-858B-B4AFE016FC19}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{AE132074-48E2-4769-A6D1-BE90385E571A}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{0560F80F-F3E2-4066-BF62-02D37BC9148F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/emails.xlsx
+++ b/emails.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\React\Mailer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3816898A-9F10-4717-B35F-FF9153BE8E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EB5640-1394-456A-A52F-B98F87CBB4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +25,864 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="286">
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>k0vbasyuk.dim0n@gmail.com</t>
+    <t>sakevuchka@gmail.com</t>
+  </si>
+  <si>
+    <t>allaslobodianyk89@gmail.com</t>
+  </si>
+  <si>
+    <t>0964529213t@gmail.com</t>
+  </si>
+  <si>
+    <t>profil-m@i.ua</t>
+  </si>
+  <si>
+    <t>irina.altuhova1984@gmail.com</t>
+  </si>
+  <si>
+    <t>laraalchuk@gmail.com</t>
+  </si>
+  <si>
+    <t>veneciavishenka48@gmail.com</t>
+  </si>
+  <si>
+    <t>GLUHMANIUK9@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>inna.ichenko1989@gmail.com</t>
+  </si>
+  <si>
+    <t>dzisivan4@gmail.com</t>
+  </si>
+  <si>
+    <t>pitikar@i.ua</t>
+  </si>
+  <si>
+    <t>preezrak666@gmail.com</t>
+  </si>
+  <si>
+    <t>Vic32167@i.ua</t>
+  </si>
+  <si>
+    <t>inshar1982@icloud.com</t>
+  </si>
+  <si>
+    <t>yana79vrach@ukr.net</t>
+  </si>
+  <si>
+    <t>vadd26@ukr.net</t>
+  </si>
+  <si>
+    <t>ekran.ukr@gmail.com</t>
+  </si>
+  <si>
+    <t>mr.vladislav.sych@gmail.com</t>
+  </si>
+  <si>
+    <t>alisa.impulss@gmail.com</t>
+  </si>
+  <si>
+    <t>vudvudlubov@gmail.com</t>
+  </si>
+  <si>
+    <t>ELYA94043@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>lysyj3103@ukr.net</t>
+  </si>
+  <si>
+    <t>grigol333@gmail.com</t>
+  </si>
+  <si>
+    <t>nikodriga@gmail.com</t>
+  </si>
+  <si>
+    <t>pank.vold.325@gmail.com</t>
+  </si>
+  <si>
+    <t>dsavinngrup@gmail.com</t>
+  </si>
+  <si>
+    <t>radzikhovska@sch20.vin.ua</t>
+  </si>
+  <si>
+    <t>kiril83p@ukr.net</t>
+  </si>
+  <si>
+    <t>alonakh1990@gmail.com</t>
+  </si>
+  <si>
+    <t>allo4kamart@gmail.com</t>
+  </si>
+  <si>
+    <t>scherbakova0903@gmail.com</t>
+  </si>
+  <si>
+    <t>bogdankorol1974@gmail.com</t>
+  </si>
+  <si>
+    <t>kostykmariiavisa@gmail.com</t>
+  </si>
+  <si>
+    <t>larisa.vovk20@gmail.com</t>
+  </si>
+  <si>
+    <t>Fg58865552@gmail.com</t>
+  </si>
+  <si>
+    <t>grinevichlilia83@gmail.com</t>
+  </si>
+  <si>
+    <t>H.kate1989@outlook.com</t>
+  </si>
+  <si>
+    <t>gerasimenko.anastasiya98@gmail.com</t>
+  </si>
+  <si>
+    <t>ludmila110599@gmail.com</t>
+  </si>
+  <si>
+    <t>shevik890@gmail.com</t>
+  </si>
+  <si>
+    <t>natabri16@gmail.com</t>
+  </si>
+  <si>
+    <t>Lorka@ukr.net</t>
+  </si>
+  <si>
+    <t>viktorhrebin@gmail.com</t>
+  </si>
+  <si>
+    <t>umarty73@gmail.com</t>
+  </si>
+  <si>
+    <t>zimaka@ukr.net</t>
+  </si>
+  <si>
+    <t>rcc943vinnitsa@ukr.net</t>
+  </si>
+  <si>
+    <t>irholk@gmail.com</t>
+  </si>
+  <si>
+    <t>irka29091992@gmail.com</t>
+  </si>
+  <si>
+    <t>natalia277155@gmail.com</t>
+  </si>
+  <si>
+    <t>vit4ess@gmail.com</t>
+  </si>
+  <si>
+    <t>katyaburkan@gmail.com</t>
+  </si>
+  <si>
+    <t>neoendru76@gmail.com</t>
+  </si>
+  <si>
+    <t>miraw368@gmail.com</t>
+  </si>
+  <si>
+    <t>yatsishin094@gmail.com</t>
+  </si>
+  <si>
+    <t>polichka917@gmail.com</t>
+  </si>
+  <si>
+    <t>777meri@i.ua</t>
+  </si>
+  <si>
+    <t>pogutgalina60@gmail.com</t>
+  </si>
+  <si>
+    <t>sergey-andrijchukk@i.ua</t>
+  </si>
+  <si>
+    <t>PSM21099@gmail.com</t>
+  </si>
+  <si>
+    <t>dreamgirl13@ukr.net</t>
+  </si>
+  <si>
+    <t>yukard09@gmail.com</t>
+  </si>
+  <si>
+    <t>Kristal1k1708@gmail.com</t>
+  </si>
+  <si>
+    <t>puhalskaya.nataliya2018@gmail.com</t>
+  </si>
+  <si>
+    <t>tomazaskaruk@gmail.com</t>
+  </si>
+  <si>
+    <t>irina.oselya@gmail.com</t>
+  </si>
+  <si>
+    <t>beatport036@gmail.com</t>
+  </si>
+  <si>
+    <t>Aaoliinik@gmail.com</t>
+  </si>
+  <si>
+    <t>oksanashtui15@gmail.com</t>
+  </si>
+  <si>
+    <t>fedotenkotat69@ukr.net</t>
+  </si>
+  <si>
+    <t>pevtcd@gmail.com</t>
+  </si>
+  <si>
+    <t>krasava89@ukr.net</t>
+  </si>
+  <si>
+    <t>Eugene.Shaparenko1@protonmail.com</t>
+  </si>
+  <si>
+    <t>31081990sadan@gmail.com</t>
+  </si>
+  <si>
+    <t>olgapagaidak@ukr.net</t>
+  </si>
+  <si>
+    <t>papa.andriy@gmail.com</t>
+  </si>
+  <si>
+    <t>natalikrakiv@gmail.com</t>
+  </si>
+  <si>
+    <t>zyuliya@yahoo.com</t>
+  </si>
+  <si>
+    <t>vitaly.koval@gmail.com</t>
+  </si>
+  <si>
+    <t>space40@ukr.net</t>
+  </si>
+  <si>
+    <t>avramenkosvetlana606@gmail.com</t>
+  </si>
+  <si>
+    <t>alla_vv@ukr.net</t>
+  </si>
+  <si>
+    <t>malino56@gmail.com</t>
+  </si>
+  <si>
+    <t>chifir1942@gmail.com</t>
+  </si>
+  <si>
+    <t>godovanukaleksandra@gmail.com</t>
+  </si>
+  <si>
+    <t>negerdus1976@gmail.com</t>
+  </si>
+  <si>
+    <t>sergilius@ua.fm</t>
+  </si>
+  <si>
+    <t>vinchokur@gmail.com</t>
+  </si>
+  <si>
+    <t>viktoriahumeniuk@gmail.com</t>
+  </si>
+  <si>
+    <t>olyaburan28@gmail.com</t>
+  </si>
+  <si>
+    <t>Olshevskalesya29@gmail.com</t>
+  </si>
+  <si>
+    <t>dankova1303@gmail.com</t>
+  </si>
+  <si>
+    <t>nataliazagoruiko1978@gmail.com</t>
+  </si>
+  <si>
+    <t>tarasmazur45@gmail.com</t>
+  </si>
+  <si>
+    <t>tativabluk@gmail.com</t>
+  </si>
+  <si>
+    <t>vala.vechirko@gmail.com</t>
+  </si>
+  <si>
+    <t>jukebebe1105@gmail.com</t>
+  </si>
+  <si>
+    <t>yuriy.kauck@gmail.com</t>
+  </si>
+  <si>
+    <t>mashenka.pavlusha@gmail.com</t>
+  </si>
+  <si>
+    <t>aneshley1@icloud.com</t>
+  </si>
+  <si>
+    <t>ppeettrroo1954@gmail.com</t>
+  </si>
+  <si>
+    <t>bernatskaya.julia98@gmail.com</t>
+  </si>
+  <si>
+    <t>manager@electro.vn.ua</t>
+  </si>
+  <si>
+    <t>delila1@ukr.net</t>
+  </si>
+  <si>
+    <t>avasilchenko1954@gmail.com</t>
+  </si>
+  <si>
+    <t>kovalukvladimir44@gmail.com</t>
+  </si>
+  <si>
+    <t>morrisshostak1@gmail.com</t>
+  </si>
+  <si>
+    <t>swordandknife2000@gmail.com</t>
+  </si>
+  <si>
+    <t>p6041n@gmail.com</t>
+  </si>
+  <si>
+    <t>stoss305@gmail.com</t>
+  </si>
+  <si>
+    <t>apostol.vn.ua@gmail.com</t>
+  </si>
+  <si>
+    <t>lyubov.911@gmail.com</t>
+  </si>
+  <si>
+    <t>Greydgamer1988@gmail.com</t>
+  </si>
+  <si>
+    <t>iso1770@ukr.net</t>
+  </si>
+  <si>
+    <t>ludka3701@gmail.com</t>
+  </si>
+  <si>
+    <t>vepeshka74@gmail.com</t>
+  </si>
+  <si>
+    <t>zely25@ukr.net</t>
+  </si>
+  <si>
+    <t>skrinn0103@gmail.com</t>
+  </si>
+  <si>
+    <t>molsu19sv@gmail.com</t>
+  </si>
+  <si>
+    <t>olenachumak994@gmail.com</t>
+  </si>
+  <si>
+    <t>abramovanadia1@gmail.com</t>
+  </si>
+  <si>
+    <t>ivan.malinka@gmail.com</t>
+  </si>
+  <si>
+    <t>devanter@ukr.net</t>
+  </si>
+  <si>
+    <t>kbktww@gmail.com</t>
+  </si>
+  <si>
+    <t>romvik86@gmail.com</t>
+  </si>
+  <si>
+    <t>doluvit@gmail.com</t>
+  </si>
+  <si>
+    <t>hyzhaa18@gmail.com</t>
+  </si>
+  <si>
+    <t>julia.fortepiano@gmail.com</t>
+  </si>
+  <si>
+    <t>lena.gen.gor@gmail.com</t>
+  </si>
+  <si>
+    <t>loridan505@gmail.com</t>
+  </si>
+  <si>
+    <t>kolyakola136@gmail.com</t>
+  </si>
+  <si>
+    <t>irinavoz82@gmail.com</t>
+  </si>
+  <si>
+    <t>mashkajazz@gmail.com</t>
+  </si>
+  <si>
+    <t>beltar2022@gmail.com</t>
+  </si>
+  <si>
+    <t>alyudmyla@ukr.net</t>
+  </si>
+  <si>
+    <t>jankov@ukr.net</t>
+  </si>
+  <si>
+    <t>lyudmilakut@gmail.com</t>
+  </si>
+  <si>
+    <t>vinnighenka@gmail.com</t>
+  </si>
+  <si>
+    <t>vista.69@ukr.net</t>
+  </si>
+  <si>
+    <t>lidiya.melnik67@gmail.com</t>
+  </si>
+  <si>
+    <t>alger75@ukr.net</t>
+  </si>
+  <si>
+    <t>dreamfall1982b@gmail.com</t>
+  </si>
+  <si>
+    <t>kot7777@i.ua</t>
+  </si>
+  <si>
+    <t>storozuklubov3@gmail.com</t>
+  </si>
+  <si>
+    <t>katya777m@gmail.com</t>
+  </si>
+  <si>
+    <t>ksenya0109@gmail.com</t>
+  </si>
+  <si>
+    <t>lubarska@i.ua</t>
+  </si>
+  <si>
+    <t>super.yuliya161@ukr.net</t>
+  </si>
+  <si>
+    <t>oplatazahatu@gmail.com</t>
+  </si>
+  <si>
+    <t>andrewrecordsmonaco@gmail.com</t>
+  </si>
+  <si>
+    <t>voytov1996@gmail.com</t>
+  </si>
+  <si>
+    <t>pbvf77@ukr.net</t>
+  </si>
+  <si>
+    <t>sergej13091309@gmail.com</t>
+  </si>
+  <si>
+    <t>urovskaya@i.ua</t>
+  </si>
+  <si>
+    <t>likar-shevchuk@ukr.net</t>
+  </si>
+  <si>
+    <t>ymostova1@gmail.com</t>
+  </si>
+  <si>
+    <t>volodimirm773@gmail.com</t>
+  </si>
+  <si>
+    <t>Alenakug2017@gmail.com</t>
+  </si>
+  <si>
+    <t>lubaakovenko5@gmail.com</t>
+  </si>
+  <si>
+    <t>Valentyna2402@gmail.com</t>
+  </si>
+  <si>
+    <t>samsungdzej34@gmail.com</t>
+  </si>
+  <si>
+    <t>Perepelicadata@ukr.net</t>
+  </si>
+  <si>
+    <t>ks.0674337070@gmail.com</t>
+  </si>
+  <si>
+    <t>tom@vn.ua</t>
+  </si>
+  <si>
+    <t>lyudmilazhdaniuk@icloud.com</t>
+  </si>
+  <si>
+    <t>Jjjpavlik@gmail.com</t>
+  </si>
+  <si>
+    <t>Gruzitskaya@i.ua</t>
+  </si>
+  <si>
+    <t>odp.moto@gmail.com</t>
+  </si>
+  <si>
+    <t>anzhela.yezerska@ukr.net</t>
+  </si>
+  <si>
+    <t>tarasyukandrey1509@icloud.com</t>
+  </si>
+  <si>
+    <t>maria.volvap@gmail.com</t>
+  </si>
+  <si>
+    <t>v.zanovich@ukr.net</t>
+  </si>
+  <si>
+    <t>liladobru@gmail.com</t>
+  </si>
+  <si>
+    <t>pevial1971@gmail.com</t>
+  </si>
+  <si>
+    <t>shvets1801@ukr.net</t>
+  </si>
+  <si>
+    <t>vasiliy.lyalyuk@gmail.com</t>
+  </si>
+  <si>
+    <t>akreschuk@gmail.com</t>
+  </si>
+  <si>
+    <t>larif2012@gmail.com</t>
+  </si>
+  <si>
+    <t>Maryna.kalinina@dini.ua</t>
+  </si>
+  <si>
+    <t>yuznoukrainsk@gmail.com</t>
+  </si>
+  <si>
+    <t>dstenukova@gmail.com</t>
+  </si>
+  <si>
+    <t>vinnloto@gmail.com</t>
+  </si>
+  <si>
+    <t>bondar.i.v.7@gmail.com</t>
+  </si>
+  <si>
+    <t>elena.whity71@gmail.com</t>
+  </si>
+  <si>
+    <t>shybinska@gmail.com</t>
+  </si>
+  <si>
+    <t>lastovetskayaanna83@gmail.com</t>
+  </si>
+  <si>
+    <t>elena.oliynyk@ukr.net</t>
+  </si>
+  <si>
+    <t>zanosko-ira@ukr.net</t>
+  </si>
+  <si>
+    <t>dimansh1308@gmail.com</t>
+  </si>
+  <si>
+    <t>stachev.sergey@gmail.com</t>
+  </si>
+  <si>
+    <t>kta7956@gmail.com</t>
+  </si>
+  <si>
+    <t>Issavin@i.ua</t>
+  </si>
+  <si>
+    <t>odegovhm@gmail.com</t>
+  </si>
+  <si>
+    <t>farmageioo@gmail.com</t>
+  </si>
+  <si>
+    <t>monimo2204@gmail.com</t>
+  </si>
+  <si>
+    <t>ut5nm@ukr.net</t>
+  </si>
+  <si>
+    <t>yuliagembarsca1@gmail.com</t>
+  </si>
+  <si>
+    <t>pasha.gorban.80@gmail.com</t>
+  </si>
+  <si>
+    <t>dasha7777marukhno@gmail.com</t>
+  </si>
+  <si>
+    <t>petabicok@gmail.com</t>
+  </si>
+  <si>
+    <t>yriks@ukr.net</t>
+  </si>
+  <si>
+    <t>lyudmila.varanitsa@gmail.com</t>
+  </si>
+  <si>
+    <t>esenya3333@gmail.com</t>
+  </si>
+  <si>
+    <t>s.shepeta@gmail.com</t>
+  </si>
+  <si>
+    <t>xodok2912@gmail.com</t>
+  </si>
+  <si>
+    <t>verasun1412@gmail.com</t>
+  </si>
+  <si>
+    <t>taisalev59@gmail.com</t>
+  </si>
+  <si>
+    <t>annamihalec5@gmail.com</t>
+  </si>
+  <si>
+    <t>taisalev@ukr.net</t>
+  </si>
+  <si>
+    <t>gennadiy.gedzenko@gmail.com</t>
+  </si>
+  <si>
+    <t>OlenaLoshak1985@gmail.com</t>
+  </si>
+  <si>
+    <t>westk544@gmail.com</t>
+  </si>
+  <si>
+    <t>Dushko69@ukr.net</t>
+  </si>
+  <si>
+    <t>kovarelot@gmail.com</t>
+  </si>
+  <si>
+    <t>mamikl63@ukr.net</t>
+  </si>
+  <si>
+    <t>annuc1706@gmail.com</t>
+  </si>
+  <si>
+    <t>Knysolgau2@gmail.com</t>
+  </si>
+  <si>
+    <t>llc.pozakonu@gmail.com</t>
+  </si>
+  <si>
+    <t>billy61@ukr.net</t>
+  </si>
+  <si>
+    <t>darina2451@gmail.com</t>
+  </si>
+  <si>
+    <t>dkorol471@gmail.com</t>
+  </si>
+  <si>
+    <t>novolga030174@gmail.com</t>
+  </si>
+  <si>
+    <t>Dr1ftesecond2@gmail.com</t>
+  </si>
+  <si>
+    <t>serg_123@i.ua</t>
+  </si>
+  <si>
+    <t>allroad499@gmail.com</t>
+  </si>
+  <si>
+    <t>rinat.garipov@ukr.net</t>
+  </si>
+  <si>
+    <t>vik.zarichniuk@gmail.com</t>
+  </si>
+  <si>
+    <t>roman.krasota.27@gmail.com</t>
+  </si>
+  <si>
+    <t>buynuyrv@gmail.com</t>
+  </si>
+  <si>
+    <t>oksimart0704@gmail.com</t>
+  </si>
+  <si>
+    <t>natali5x5@ukr.net</t>
+  </si>
+  <si>
+    <t>14yarik96@gmail.com</t>
+  </si>
+  <si>
+    <t>BilukKlavdia@ukr.net</t>
+  </si>
+  <si>
+    <t>respect19824243@meta.ua</t>
+  </si>
+  <si>
+    <t>vitallazar@gmail.com</t>
+  </si>
+  <si>
+    <t>viktor.kravets01101976@gmail.com</t>
+  </si>
+  <si>
+    <t>manakolena346@gmail.com</t>
+  </si>
+  <si>
+    <t>srl2@ukr.net</t>
+  </si>
+  <si>
+    <t>1a.class201826school@gmail.com</t>
+  </si>
+  <si>
+    <t>Vicky.and.16@gmail.com</t>
+  </si>
+  <si>
+    <t>turkozak@ukr.net</t>
+  </si>
+  <si>
+    <t>bogdan.ostrovskiy25@gmail.com</t>
+  </si>
+  <si>
+    <t>Pachnyk.lydmila@gmail.com</t>
+  </si>
+  <si>
+    <t>pober139@i.ua</t>
+  </si>
+  <si>
+    <t>o933683888@gmail.com</t>
+  </si>
+  <si>
+    <t>oleg.karavanskiy@gmail.com</t>
+  </si>
+  <si>
+    <t>Tkachuk.ruslan91@gmail.com</t>
+  </si>
+  <si>
+    <t>GolybevaOksana@i.ua</t>
+  </si>
+  <si>
+    <t>ivanlukiancuk480@gmail.com</t>
+  </si>
+  <si>
+    <t>pashok-ua@ukr.net</t>
+  </si>
+  <si>
+    <t>ira.kurgan@gmail.com</t>
+  </si>
+  <si>
+    <t>kudlasergey@ukr.net</t>
+  </si>
+  <si>
+    <t>kozik@i.ua</t>
+  </si>
+  <si>
+    <t>zabarskiymaxwell30@gmail.com</t>
+  </si>
+  <si>
+    <t>tanyshasamojlova@gmail.com</t>
+  </si>
+  <si>
+    <t>sseerrggeeyy97@gmail.com</t>
+  </si>
+  <si>
+    <t>alexander.leilek@gmail.com</t>
+  </si>
+  <si>
+    <t>sh-yulia@ukr.net</t>
+  </si>
+  <si>
+    <t>pivtorakpasha@gmail.com</t>
+  </si>
+  <si>
+    <t>mashinistka29@gmail.com</t>
+  </si>
+  <si>
+    <t>liuda7121@yahoo.com</t>
+  </si>
+  <si>
+    <t>igolil6867@gmail.com</t>
+  </si>
+  <si>
+    <t>porohovyi7@gmail.com</t>
+  </si>
+  <si>
+    <t>dimanya412@gmail.com</t>
+  </si>
+  <si>
+    <t>anasanna1@gmail.com</t>
+  </si>
+  <si>
+    <t>sashaki0007@gmail.com</t>
+  </si>
+  <si>
+    <t>vinlift@ukr.net</t>
+  </si>
+  <si>
+    <t>sergeynikolukdvd@gmail.com</t>
+  </si>
+  <si>
+    <t>innycik1991@gmail.com</t>
+  </si>
+  <si>
+    <t>1980dimich@gmail.com</t>
+  </si>
+  <si>
+    <t>alonagrabnik@gmail.com</t>
+  </si>
+  <si>
+    <t>gmv14071984@gmail.com</t>
+  </si>
+  <si>
+    <t>prolisok_2016@ukr.net</t>
+  </si>
+  <si>
+    <t>chumak@vmr.gov.ua</t>
+  </si>
+  <si>
+    <t>blzha@yandex.ua</t>
+  </si>
+  <si>
+    <t>igor.bunik@gmail.com</t>
+  </si>
+  <si>
+    <t>apocalipsys77@ukr.net</t>
+  </si>
+  <si>
+    <t>viktoria.vintur@gmail.com</t>
+  </si>
+  <si>
+    <t>any.loshak@gmail.com</t>
+  </si>
+  <si>
+    <t>lukashenkooksana22@gmail.com</t>
+  </si>
+  <si>
+    <t>biliyoleg@ukr.net</t>
+  </si>
+  <si>
+    <t>kramarlilia90@gmail.com</t>
+  </si>
+  <si>
+    <t>i.artsybasova@gmail.com</t>
+  </si>
+  <si>
+    <t>sharrlindise@gmail.com</t>
+  </si>
+  <si>
+    <t>goncharova170990@gmail.com</t>
+  </si>
+  <si>
+    <t>muwkonba@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -46,6 +898,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -53,24 +913,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -78,17 +936,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гіперпосилання" xfId="1" builtinId="8"/>
@@ -370,39 +1240,1527 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:A301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="5" t="s">
+        <v>285</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{0560F80F-F3E2-4066-BF62-02D37BC9148F}"/>
+    <hyperlink ref="A2" r:id="rId1" display="k0vbasyuk.dim0n@gmail.com" xr:uid="{E34914D1-16EB-4729-9D5E-9A27E65E9212}"/>
+    <hyperlink ref="A301" r:id="rId2" display="k0vbasyuk.dim0n@gmail.com" xr:uid="{7A23AF06-3FF6-440E-B767-3F482398481C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
